--- a/assets/img/Book1.xlsx
+++ b/assets/img/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\dev\docupulse-landingpage\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\dev\docupulse-landingpage\assets\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D196D-3F2B-4607-9E7D-B2412A1B2C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE120A4-0C17-4AE4-B8A0-2D4EB457A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1470" windowWidth="16890" windowHeight="12465" xr2:uid="{AFC03A04-B4B1-4F9A-B451-BF43243AFB06}"/>
+    <workbookView xWindow="4020" yWindow="-16515" windowWidth="11100" windowHeight="12645" xr2:uid="{AFC03A04-B4B1-4F9A-B451-BF43243AFB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Max Müller</t>
   </si>
   <si>
-    <t>Musterstraße 1
-60439 Frankfurt am Main</t>
-  </si>
-  <si>
     <t>Sales Executive</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Compliance Workshop</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -63,9 +56,6 @@
     <t>Tests</t>
   </si>
   <si>
-    <t>Rechtsconform: Arbeitsrecht</t>
-  </si>
-  <si>
     <t>Zu bearbeiten</t>
   </si>
   <si>
@@ -79,6 +69,24 @@
   </si>
   <si>
     <t>38 Std</t>
+  </si>
+  <si>
+    <t>Musterstraße 1</t>
+  </si>
+  <si>
+    <t>Adresse 1</t>
+  </si>
+  <si>
+    <t>Adresse 2</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main</t>
+  </si>
+  <si>
+    <t>Arbeitsrecht</t>
+  </si>
+  <si>
+    <t>Compliance</t>
   </si>
 </sst>
 </file>
@@ -134,9 +142,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -166,13 +173,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -219,13 +226,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>793749</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>989731</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -588,7 +595,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="512" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="385" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -606,6 +613,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -634,91 +644,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B4219-B651-4FE3-A0F1-82FA63F151D5}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
         <v>75000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/img/Book1.xlsx
+++ b/assets/img/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\dev\docupulse-landingpage\assets\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\dev\docupulse\docupulse-landingpage_de\assets\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE120A4-0C17-4AE4-B8A0-2D4EB457A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED4E9B-2C22-43C8-9C1C-2DDF2D516D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-16515" windowWidth="11100" windowHeight="12645" xr2:uid="{AFC03A04-B4B1-4F9A-B451-BF43243AFB06}"/>
+    <workbookView xWindow="5940" yWindow="-19005" windowWidth="11940" windowHeight="11955" activeTab="1" xr2:uid="{AFC03A04-B4B1-4F9A-B451-BF43243AFB06}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="de" sheetId="1" r:id="rId1"/>
+    <sheet name="en" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Max Müller</t>
   </si>
@@ -87,6 +88,45 @@
   </si>
   <si>
     <t>Compliance</t>
+  </si>
+  <si>
+    <t>Sarah Miller</t>
+  </si>
+  <si>
+    <t>124 Evergreen Lane</t>
+  </si>
+  <si>
+    <t>Apt 3B</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Salary p.a.</t>
+  </si>
+  <si>
+    <t>40hrs</t>
+  </si>
+  <si>
+    <t>Labor Law</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>$ 75,000</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Hours p. week</t>
   </si>
 </sst>
 </file>
@@ -267,6 +307,117 @@
         <a:xfrm>
           <a:off x="2851829" y="2121488"/>
           <a:ext cx="195982" cy="201135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1" descr="Checkmark with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAC3434-7986-45BB-BC9C-0B4FB9B3F910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="2095500"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>527049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723031</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Hourglass Finished with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132666CB-E840-493C-A700-5A889803524F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851024" y="2477542"/>
+          <a:ext cx="195982" cy="198867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,6 +749,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="385" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="468" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -642,12 +796,22 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B3133370-A8CD-424A-97FF-15F4506FC0F1}">
+  <we:reference id="7842cb64-24a5-40ce-906f-bc385ca961c5" version="1.0.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B4219-B651-4FE3-A0F1-82FA63F151D5}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,4 +907,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC7C3AB-C8CC-4512-BD21-AD397F00F95E}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>